--- a/Test_Station_get_data_df.xlsx
+++ b/Test_Station_get_data_df.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,45 +459,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TESCO</t>
+          <t>ASDA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TESCO MIDSOMER NORTON</t>
+          <t>ASDA FROME AUTOMAT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>OLD MILLS</t>
+          <t>WARMINSTER ROAD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BRISTOL</t>
+          <t>FROME</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BS39 7SW</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -506,29 +506,29 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>124.9</v>
+        <v>126.7</v>
       </c>
       <c r="M2" t="n">
-        <v>124.9</v>
+        <v>126.6504146569708</v>
       </c>
       <c r="N2" t="n">
-        <v>99999</v>
+        <v>0.003304349138943508</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Additive</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14/08/2019 17:41:00</t>
+          <t>17/08/2019 17:46:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>51.2924123636056</v>
+        <v>51.2273911883167</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.50031278167396</v>
+        <v>-2.30448401366007</v>
       </c>
     </row>
     <row r="3">
@@ -537,45 +537,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEXACO</t>
+          <t>SAINSBURYS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FARRINGTON GURNEY SERVICE STATION</t>
+          <t>SAINSBURYS FROME</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BRISTOL ROAD</t>
+          <t>MARSTON ROAD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BRISTOL</t>
+          <t>FROME</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BS39 6TG</t>
+          <t>BA11 4DH</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -584,29 +584,29 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>127.9</v>
+        <v>126.9</v>
       </c>
       <c r="M3" t="n">
-        <v>127.9</v>
+        <v>126.8662921332731</v>
       </c>
       <c r="N3" t="n">
-        <v>99999</v>
+        <v>0.004776022973416616</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ARIMA((0, 1, 0))</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>14/08/2019 22:26:00</t>
+          <t>17/08/2019 13:18:00</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>51.2995371604388</v>
+        <v>51.2171374315559</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.53416908603165</v>
+        <v>-2.33200661331894</v>
       </c>
     </row>
     <row r="4">
@@ -615,45 +615,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>4.57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEXACO</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BROADWAY GARAGE</t>
+          <t>A36 WARMINSTER SERVICE AREA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BROADWAY</t>
+          <t>BATH ROAD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BATH</t>
+          <t>WARMINSTER</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>WILTSHIRE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BA3 4JW</t>
+          <t>BA12 7RU</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>127.9</v>
+        <v>128.9</v>
       </c>
       <c r="M4" t="n">
-        <v>127.8583453013606</v>
+        <v>128.8770803499276</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004603492200374149</v>
+        <v>0.008555188776256273</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>14/08/2019 07:41:00</t>
+          <t>09/08/2019 18:44:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>51.2599041269091</v>
+        <v>51.2178514153014</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.51540855307935</v>
+        <v>-2.19998588637996</v>
       </c>
     </row>
     <row r="5">
@@ -693,16 +693,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>1.26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -711,27 +711,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SHELL ELM TREE</t>
+          <t>FROME SERVICE STATION</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>WELLS ROAD</t>
+          <t>SOUTHGATE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BATH</t>
+          <t>FROME</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BA3 3UR</t>
+          <t>BA11 2RY</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>127.9</v>
+        <v>128.9</v>
       </c>
       <c r="M5" t="n">
-        <v>127.8583453013606</v>
+        <v>128.8770803499276</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004603492200374149</v>
+        <v>0.008555188776256273</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>17/08/2019 14:10:00</t>
+          <t>11/08/2019 16:22:00</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>51.2844554553525</v>
+        <v>51.2429256459164</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.46747661687555</v>
+        <v>-2.29176511193396</v>
       </c>
     </row>
     <row r="6">
@@ -771,45 +771,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ESSO</t>
+          <t>TEXACO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NORTON SERVICE STATION</t>
+          <t>CENTRAL C-STORES FROME</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CHURCH LANE</t>
+          <t>PORTWAY</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BATH</t>
+          <t>FROME</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 1QS</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -818,29 +818,29 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>128.9</v>
+        <v>129.9</v>
       </c>
       <c r="M6" t="n">
-        <v>128.8728074505217</v>
+        <v>129.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00364289517369798</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Additive</t>
+          <t>Simple</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>17/08/2019 14:43:00</t>
+          <t>17/08/2019 19:57:00</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>51.2857357376034</v>
+        <v>51.227589605862</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.48648896526595</v>
+        <v>-2.31445273169882</v>
       </c>
     </row>
     <row r="7">
@@ -849,30 +849,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.89</v>
+        <v>3.04</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CO-OP</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CO-OP MARKSBURY WESTWAYS</t>
+          <t>BECKINGTON SF CONNECT</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A39</t>
+          <t>TROWBRIDGE ROAD</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BA2 9HN</t>
+          <t>BA11 6SF</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -902,7 +902,7 @@
         <v>131.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01538461538461888</v>
+        <v>0.02898550724637516</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -911,14 +911,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>17/08/2019 16:09:00</t>
+          <t>11/08/2019 18:32:00</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>51.3563271687553</v>
+        <v>51.2693080921672</v>
       </c>
       <c r="R7" t="n">
-        <v>-2.48511125324612</v>
+        <v>-2.28433530861352</v>
       </c>
     </row>
     <row r="8">
@@ -927,45 +927,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-08-23</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BA3 2JL</t>
+          <t>BA11 5LA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.47</v>
+        <v>3.59</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEXACO</t>
+          <t>ESSO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CENTRAL C-STORES TEMPLE CLOUD</t>
+          <t>NUNNEY CATCH SERVICES</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WELLS ROAD</t>
+          <t>NUNNEY ROAD</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BRISTOL</t>
+          <t>FROME</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
+          <t>SOMERSET</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BS39 5BZ</t>
+          <t>BA11 4NZ</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -974,731 +974,29 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>131.9</v>
+        <v>132.9</v>
       </c>
       <c r="M8" t="n">
-        <v>131.9</v>
+        <v>132.9433760252616</v>
       </c>
       <c r="N8" t="n">
-        <v>99999</v>
+        <v>0.0001139669091969608</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Additive</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>14/08/2019 17:24:00</t>
+          <t>11/08/2019 13:43:00</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>51.3200914314184</v>
+        <v>51.201507968634</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.54416581825932</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MURCO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ARLEEN COACH HIRE AND SERVICES</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>BATH ROAD</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>BA2 8DH</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.01538461538461888</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>10/08/2019 12:15:00</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>51.3150325796546</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-2.42861676986121</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TESCO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>TESCO MIDSOMER NORTON</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>OLD MILLS</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>BS39 7SW</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="N10" t="n">
-        <v>99999</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>14/08/2019 17:41:00</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>51.2924123636056</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-2.50031278167396</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TEXACO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FARRINGTON GURNEY SERVICE STATION</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>BRISTOL ROAD</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>BS39 6TG</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="N11" t="n">
-        <v>99999</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>14/08/2019 22:26:00</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>51.2995371604388</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-2.53416908603165</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEXACO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>BROADWAY GARAGE</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>BROADWAY</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SOMERSET</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>BA3 4JW</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>127.8583453013606</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.004603492200374149</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Additive</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>14/08/2019 07:41:00</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>51.2599041269091</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-2.51540855307935</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SHELL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SHELL ELM TREE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>WELLS ROAD</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>BA3 3UR</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>127.8583453013606</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.004603492200374149</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Additive</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>17/08/2019 14:10:00</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>51.2844554553525</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-2.46747661687555</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ESSO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NORTON SERVICE STATION</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>CHURCH LANE</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>128.8728074505217</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.00364289517369798</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Additive</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>17/08/2019 14:43:00</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>51.2857357376034</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-2.48648896526595</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CO-OP</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CO-OP MARKSBURY WESTWAYS</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A39</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>BA2 9HN</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="M15" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.01538461538461888</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>17/08/2019 16:09:00</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>51.3563271687553</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-2.48511125324612</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TEXACO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CENTRAL C-STORES TEMPLE CLOUD</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>WELLS ROAD</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>BS39 5BZ</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="M16" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>99999</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>14/08/2019 17:24:00</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>51.3200914314184</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-2.54416581825932</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BA3 2JL</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MURCO</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ARLEEN COACH HIRE AND SERVICES</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>BATH ROAD</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>BATH AND NORTH EAST SOMERSET</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>BA2 8DH</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="M17" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.01538461538461888</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>10/08/2019 12:15:00</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>51.3150325796546</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-2.42861676986121</v>
+        <v>-2.37697983629048</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Station_get_data_df.xlsx
+++ b/Test_Station_get_data_df.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,40 +464,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BA11 5LA</t>
+          <t>CA10 3RL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.07</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASDA</t>
+          <t>UNBRANDED</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASDA FROME AUTOMAT</t>
+          <t>J38 DIESEL SERVICES TEBAY GORGE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WARMINSTER ROAD</t>
+          <t>TEBAY INTERCHANGE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FROME</t>
+          <t>PENRITH</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>CUMBRIA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BA11 5LA</t>
+          <t>CA10 3SS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -506,29 +506,29 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>126.7</v>
+        <v>128.9</v>
       </c>
       <c r="M2" t="n">
-        <v>126.6504146569708</v>
+        <v>128.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003304349138943508</v>
+        <v>0.01449275362318758</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Additive</t>
+          <t>Simple</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17/08/2019 17:46:00</t>
+          <t>10/08/2019 10:47:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>51.2273911883167</v>
+        <v>54.4390158776614</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.30448401366007</v>
+        <v>-2.59314136496788</v>
       </c>
     </row>
     <row r="3">
@@ -542,40 +542,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BA11 5LA</t>
+          <t>CA10 3RL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SAINSBURYS</t>
+          <t>ESSO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SAINSBURYS FROME</t>
+          <t>M6 TEBAY MOTORWAY SERVICE AREA NORTHBOUND</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MARSTON ROAD</t>
+          <t>M6 J38-39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FROME</t>
+          <t>PENRITH</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>CUMBRIA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BA11 4DH</t>
+          <t>CA10 3SB</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -584,29 +584,29 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>126.9</v>
+        <v>147.9</v>
       </c>
       <c r="M3" t="n">
-        <v>126.8662921332731</v>
+        <v>148.160153801692</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004776022973416616</v>
+        <v>0.000782203613425736</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>ARIMA((0, 1, 0))</t>
+          <t>Additive</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>17/08/2019 13:18:00</t>
+          <t>14/08/2019 20:33:00</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>51.2171374315559</v>
+        <v>54.4496536642495</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.33200661331894</v>
+        <v>-2.60998192868681</v>
       </c>
     </row>
     <row r="4">
@@ -620,40 +620,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BA11 5LA</t>
+          <t>CA10 3RL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.57</v>
+        <v>1.38</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>ESSO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A36 WARMINSTER SERVICE AREA</t>
+          <t>M6 TEBAY MOTORWAY SERVICE AREA SOUTHBOUND</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BATH ROAD</t>
+          <t>M6 J38-39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>WARMINSTER</t>
+          <t>PENRITH</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>WILTSHIRE</t>
+          <t>CUMBRIA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BA12 7RU</t>
+          <t>CA10 3SB</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>128.9</v>
+        <v>147.9</v>
       </c>
       <c r="M4" t="n">
-        <v>128.8770803499276</v>
+        <v>148.160153801692</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008555188776256273</v>
+        <v>0.000782203613425736</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -677,326 +677,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>09/08/2019 18:44:00</t>
+          <t>14/08/2019 20:29:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>51.2178514153014</v>
+        <v>54.4496536642495</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.19998588637996</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BA11 5LA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SHELL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FROME SERVICE STATION</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SOUTHGATE</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>FROME</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SOMERSET</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>BA11 2RY</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>128.8770803499276</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.008555188776256273</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Additive</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>11/08/2019 16:22:00</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>51.2429256459164</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-2.29176511193396</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BA11 5LA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TEXACO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CENTRAL C-STORES FROME</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PORTWAY</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>FROME</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SOMERSET</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>BA11 1QS</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>17/08/2019 19:57:00</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>51.227589605862</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-2.31445273169882</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BA11 5LA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BECKINGTON SF CONNECT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TROWBRIDGE ROAD</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>BATH</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SOMERSET</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>BA11 6SF</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.02898550724637516</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>11/08/2019 18:32:00</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>51.2693080921672</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-2.28433530861352</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2019-08-27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BA11 5LA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ESSO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NUNNEY CATCH SERVICES</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NUNNEY ROAD</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>FROME</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SOMERSET</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>BA11 4NZ</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Unleaded</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="M8" t="n">
-        <v>132.9433760252616</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0001139669091969608</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Additive</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>11/08/2019 13:43:00</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>51.201507968634</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-2.37697983629048</v>
+        <v>-2.60998192868681</v>
       </c>
     </row>
   </sheetData>
